--- a/test7_matk/RunFailures_27Nov18.xlsx
+++ b/test7_matk/RunFailures_27Nov18.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ats86\testing\3DHummock\test7_matk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6AD57E-0F39-4412-B260-BEBA4B9DB3BE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69ED99E7-C4E7-4316-A128-8B6E2000C087}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{BD90452C-60FF-4A9E-B04A-268DE4FF7EDA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" activeTab="3" xr2:uid="{BD90452C-60FF-4A9E-B04A-268DE4FF7EDA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20Nov18" sheetId="1" r:id="rId1"/>
+    <sheet name="01Dec and 01DecDebug" sheetId="6" r:id="rId2"/>
+    <sheet name="29Nov and 01Dec" sheetId="7" r:id="rId3"/>
+    <sheet name="27Nov18" sheetId="3" r:id="rId4"/>
+    <sheet name="28Nov18" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$R$1:$R$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20Nov18'!$R$1:$R$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'27Nov18'!$S$1:$S$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'28Nov18'!$S$1:$S$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t>Crash Matrix</t>
   </si>
@@ -51,6 +58,66 @@
     <t>Time (yrs):</t>
   </si>
   <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -115,13 +182,109 @@
   </si>
   <si>
     <t>Run 2a crashes here</t>
+  </si>
+  <si>
+    <t>Not dead yet!</t>
+  </si>
+  <si>
+    <t>DEAD.</t>
+  </si>
+  <si>
+    <t>Trouble Spots:</t>
+  </si>
+  <si>
+    <t>p = rho*g*h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho = </t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g = </t>
+  </si>
+  <si>
+    <t>m/s2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h = </t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Rain and snow were falling at the same time</t>
+  </si>
+  <si>
+    <t>Reason:</t>
+  </si>
+  <si>
+    <t>??? (Only snow at that point)</t>
+  </si>
+  <si>
+    <t>??? (No precip happening at time of crash)</t>
+  </si>
+  <si>
+    <t>Small spike in snow but no rain</t>
+  </si>
+  <si>
+    <t>12/1/2018 Debug</t>
+  </si>
+  <si>
+    <t>Comparing runs of 3 and 6.5cm dessicated zones</t>
+  </si>
+  <si>
+    <t>3cm Dessicated Zone:</t>
+  </si>
+  <si>
+    <t>CenturySim_29Nov18_Debug</t>
+  </si>
+  <si>
+    <t>6.5cm Dessicated Zone:</t>
+  </si>
+  <si>
+    <t>CenturySim_01Dec18_Debug</t>
+  </si>
+  <si>
+    <t>3cm Dessicated Zone (01Dec18):</t>
+  </si>
+  <si>
+    <t>6.5cm Dessicated Zone (29Nov18):</t>
+  </si>
+  <si>
+    <t>Time [d]</t>
+  </si>
+  <si>
+    <t>dt [d]</t>
+  </si>
+  <si>
+    <t>Difference:</t>
+  </si>
+  <si>
+    <t>Time [y]</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>bAC</t>
+  </si>
+  <si>
+    <t>bCT</t>
+  </si>
+  <si>
+    <t>bOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +323,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -194,6 +372,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,6 +397,1101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'29Nov and 01Dec'!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time [y]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'29Nov and 01Dec'!$B$7:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'29Nov and 01Dec'!$G$7:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>103.53002180673667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.59546615711012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.371577730588928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.529788745247501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.776355984463919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.705016441117344</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.156335560179599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.366557547016207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.552915548680318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07DE-4693-9ACC-C2389AE763B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'29Nov and 01Dec'!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time [y]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'29Nov and 01Dec'!$B$7:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'29Nov and 01Dec'!$K$7:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>105.50214718395138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.59396619861624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.742233492823893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.4189300186179</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.353822329940044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.67555579892673</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.329982725399738</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.478854999452409</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64.351328656671768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07DE-4693-9ACC-C2389AE763B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557899592"/>
+        <c:axId val="557895984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557899592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557895984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557895984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557899592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B66D0F-19B8-4DA8-898F-AA60A3DD85B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7448F4D-1FB6-4F69-B917-B598918D7C0A}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -541,20 +1824,20 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J2">
         <f>H2*365.25</f>
         <v>7305</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -562,29 +1845,29 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4">
         <v>38718</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J3" s="5">
         <f>H3</f>
         <v>38718</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -606,20 +1889,20 @@
         <v>4504.75</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4">
         <v>73050</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J4" s="5">
         <f>H4</f>
         <v>73050</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -641,7 +1924,7 @@
         <v>9390.6155697659306</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="W5" s="2"/>
     </row>
@@ -664,7 +1947,7 @@
         <v>9731.6305933759504</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -686,7 +1969,7 @@
         <v>10396</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H7" s="4">
         <v>31413</v>
@@ -764,7 +2047,7 @@
         <v>41942.609180420703</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="W11" s="2"/>
     </row>
@@ -790,7 +2073,7 @@
         <v>35723</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -815,7 +2098,7 @@
         <v>40847</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="U13" s="2"/>
       <c r="W13" s="2"/>
@@ -842,7 +2125,7 @@
         <v>41934</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -867,7 +2150,7 @@
         <v>36044</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="U15" s="2"/>
       <c r="W15" s="2"/>
@@ -891,7 +2174,7 @@
         <v>41214</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -916,7 +2199,7 @@
         <v>45591</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="U17" s="2"/>
       <c r="W17" s="2"/>
@@ -943,7 +2226,7 @@
         <v>39387</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1012,13 +2295,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="W23" s="2"/>
     </row>
@@ -1369,7 +2652,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1377,4 +2660,3521 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8905590B-61A9-4AC6-9A81-28187E6D18C3}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="17">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>34159.959353992199</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.5343021154403699E-5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>34160.870024313197</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.0372023185094199E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>29083.214385986299</v>
+      </c>
+      <c r="C6">
+        <v>5.56182861328125E-3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>28479.75</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>10531.303942594401</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6.3835084438323998E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>24968.625</v>
+      </c>
+      <c r="C10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>24367.6254478193</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.4835268656412801E-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>24972.752520737198</v>
+      </c>
+      <c r="C12">
+        <v>1.2675021770927599E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>24564.75</v>
+      </c>
+      <c r="G12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>9653.578125</v>
+      </c>
+      <c r="C14">
+        <v>7.03125E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>9437.1394935211902</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.5177108623363401E-11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>9845.25</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>9437.74864733508</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.6556845770941801E-11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>14735.9242534637</v>
+      </c>
+      <c r="C18">
+        <v>1.8771171569824201E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>14343.5</v>
+      </c>
+      <c r="G18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>16104.25</v>
+      </c>
+      <c r="C20">
+        <v>0.25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>15837.7325122118</v>
+      </c>
+      <c r="G20">
+        <v>1.2371485404394301E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>25696.501953125</v>
+      </c>
+      <c r="C22">
+        <v>1.7578125E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>25137.283773937601</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3.0191077126397001E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>5263.59375</v>
+      </c>
+      <c r="C24">
+        <v>0.25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4631.88146614171</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.5868494908014901E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>17631.75</v>
+      </c>
+      <c r="C26">
+        <v>0.25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>17070.570591510699</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3.7252902984619103E-11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>5251.4022378563704</v>
+      </c>
+      <c r="C28">
+        <v>9.5136358175012797E-3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4631.4420205647402</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.9664348672937498E-11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>5242.7474717446903</v>
+      </c>
+      <c r="C30">
+        <v>1.23248643331506E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6">
+        <v>4631.4835597273104</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3.4148494402567501E-11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>4316.3990881186901</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4.3140177925427799E-5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>4318.7468151469902</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.6211911484047201E-11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>7807.7235640652498</v>
+      </c>
+      <c r="C34">
+        <v>1.28009932881428E-2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>7428</v>
+      </c>
+      <c r="G34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>5243.95299441727</v>
+      </c>
+      <c r="C36">
+        <v>2.0632499263242399E-2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>4632.6492640896704</v>
+      </c>
+      <c r="G36" s="2">
+        <v>9.883226205905281E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>9432.1541892318091</v>
+      </c>
+      <c r="C38">
+        <v>4.6402251099546803E-3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>9431.5552243829006</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.37973714757849E-11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0671C3-1D5E-46E0-A57C-43E70AA1F347}">
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="J5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="O5" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>B8+C8</f>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>37813.305164692501</v>
+      </c>
+      <c r="G8">
+        <f>F8/365.24</f>
+        <v>103.53002180673667</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.5006995399793003E-5</v>
+      </c>
+      <c r="J8">
+        <v>38533.604237466403</v>
+      </c>
+      <c r="K8">
+        <f>J8/365.24</f>
+        <v>105.50214718395138</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.5962529513570998E-5</v>
+      </c>
+      <c r="O8">
+        <f>J8-F8</f>
+        <v>720.29907277390157</v>
+      </c>
+      <c r="P8">
+        <f>O8/365.24</f>
+        <v>1.9721253772147125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>B10+C10</f>
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>38202.448059222901</v>
+      </c>
+      <c r="G10">
+        <f>F10/365.24</f>
+        <v>104.59546615711012</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.92727847894033E-5</v>
+      </c>
+      <c r="J10">
+        <v>38201.9002143826</v>
+      </c>
+      <c r="K10">
+        <f>J10/365.24</f>
+        <v>104.59396619861624</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2.1080440945095502E-5</v>
+      </c>
+      <c r="O10">
+        <f>J10-F10</f>
+        <v>-0.54784484030096792</v>
+      </c>
+      <c r="P10">
+        <f>O10/365.24</f>
+        <v>-1.4999584938696965E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>B12+C12</f>
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>11092.9150503203</v>
+      </c>
+      <c r="G12" s="1">
+        <f>F12/365.24</f>
+        <v>30.371577730588928</v>
+      </c>
+      <c r="H12">
+        <v>1.1935438960790599E-2</v>
+      </c>
+      <c r="J12">
+        <v>19994.053360918999</v>
+      </c>
+      <c r="K12" s="1">
+        <f>J12/365.24</f>
+        <v>54.742233492823893</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3.1646365920702601E-5</v>
+      </c>
+      <c r="O12">
+        <f>J12-F12</f>
+        <v>8901.1383105986988</v>
+      </c>
+      <c r="P12" s="1">
+        <f>O12/365.24</f>
+        <v>24.370655762234964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>B14+C14</f>
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>34160.820041314197</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F14/365.24</f>
+        <v>93.529788745247501</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.6570571396085899E-5</v>
+      </c>
+      <c r="J14">
+        <v>27911.25</v>
+      </c>
+      <c r="K14" s="1">
+        <f>J14/365.24</f>
+        <v>76.4189300186179</v>
+      </c>
+      <c r="L14">
+        <v>0.25</v>
+      </c>
+      <c r="O14">
+        <f>J14-F14</f>
+        <v>-6249.5700413141967</v>
+      </c>
+      <c r="P14" s="1">
+        <f>O14/365.24</f>
+        <v>-17.110858726629605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f>B16+C16</f>
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>32789.916259765603</v>
+      </c>
+      <c r="G16">
+        <f>F16/365.24</f>
+        <v>89.776355984463919</v>
+      </c>
+      <c r="H16">
+        <v>3.7078857421875E-3</v>
+      </c>
+      <c r="J16">
+        <v>34827.030067787302</v>
+      </c>
+      <c r="K16">
+        <f>J16/365.24</f>
+        <v>95.353822329940044</v>
+      </c>
+      <c r="L16">
+        <v>3.1689721147219303E-2</v>
+      </c>
+      <c r="O16">
+        <f>J16-F16</f>
+        <v>2037.1138080216988</v>
+      </c>
+      <c r="P16">
+        <f>O16/365.24</f>
+        <v>5.5774663454761217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>B18+C18</f>
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>12310.4202049537</v>
+      </c>
+      <c r="G18">
+        <f>F18/365.24</f>
+        <v>33.705016441117344</v>
+      </c>
+      <c r="H18">
+        <v>2.6502140779048201E-2</v>
+      </c>
+      <c r="J18">
+        <v>10473.459999999999</v>
+      </c>
+      <c r="K18">
+        <f>J18/365.24</f>
+        <v>28.67555579892673</v>
+      </c>
+      <c r="L18" s="2">
+        <v>5.31E-6</v>
+      </c>
+      <c r="O18">
+        <f>J18-F18</f>
+        <v>-1836.9602049537007</v>
+      </c>
+      <c r="P18">
+        <f>O18/365.24</f>
+        <v>-5.0294606421906165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>B20+C20</f>
+        <v>41</v>
+      </c>
+      <c r="F20">
+        <v>31102.5</v>
+      </c>
+      <c r="G20" s="1">
+        <f>F20/365.24</f>
+        <v>85.156335560179599</v>
+      </c>
+      <c r="H20">
+        <v>0.25</v>
+      </c>
+      <c r="J20">
+        <v>20573.962890625</v>
+      </c>
+      <c r="K20" s="1">
+        <f>J20/365.24</f>
+        <v>56.329982725399738</v>
+      </c>
+      <c r="L20">
+        <v>2.63671875E-2</v>
+      </c>
+      <c r="O20">
+        <f>J20-F20</f>
+        <v>-10528.537109375</v>
+      </c>
+      <c r="P20" s="1">
+        <f>O20/365.24</f>
+        <v>-28.826352834779868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>B22+C22</f>
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>15108.7214784722</v>
+      </c>
+      <c r="G22" s="1">
+        <f>F22/365.24</f>
+        <v>41.366557547016207</v>
+      </c>
+      <c r="H22">
+        <v>1.3315225199416801E-2</v>
+      </c>
+      <c r="J22">
+        <v>24280.737000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <f>J22/365.24</f>
+        <v>66.478854999452409</v>
+      </c>
+      <c r="L22">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="O22">
+        <f>J22-F22</f>
+        <v>9172.015521527801</v>
+      </c>
+      <c r="P22" s="1">
+        <f>O22/365.24</f>
+        <v>25.112297452436209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>B24+C24</f>
+        <v>62</v>
+      </c>
+      <c r="F24">
+        <v>23942.546875</v>
+      </c>
+      <c r="G24">
+        <f>F24/365.24</f>
+        <v>65.552915548680318</v>
+      </c>
+      <c r="H24">
+        <v>0.25</v>
+      </c>
+      <c r="J24">
+        <v>23503.679278562799</v>
+      </c>
+      <c r="K24">
+        <f>J24/365.24</f>
+        <v>64.351328656671768</v>
+      </c>
+      <c r="L24">
+        <v>1.5644459365694599E-2</v>
+      </c>
+      <c r="O24">
+        <f>J24-F24</f>
+        <v>-438.86759643720143</v>
+      </c>
+      <c r="P24">
+        <f>O24/365.24</f>
+        <v>-1.2015868920085462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f>B26+C26</f>
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>34159.745149955699</v>
+      </c>
+      <c r="G26">
+        <f>F26/365.24</f>
+        <v>93.526845772521355</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2.1031151215235401E-5</v>
+      </c>
+      <c r="J26">
+        <v>34951.6638853724</v>
+      </c>
+      <c r="K26">
+        <f>J26/365.24</f>
+        <v>95.69506046810973</v>
+      </c>
+      <c r="L26">
+        <v>3.50771586486587E-2</v>
+      </c>
+      <c r="O26">
+        <f>J26-F26</f>
+        <v>791.91873541670066</v>
+      </c>
+      <c r="P26">
+        <f>O26/365.24</f>
+        <v>2.1682146955883819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <f>B28+C28</f>
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>34954.963240615303</v>
+      </c>
+      <c r="G28" s="1">
+        <f>F28/365.24</f>
+        <v>95.70409385777927</v>
+      </c>
+      <c r="H28">
+        <v>3.6759384649771201E-2</v>
+      </c>
+      <c r="J28">
+        <v>20702</v>
+      </c>
+      <c r="K28" s="1">
+        <f>J28/365.24</f>
+        <v>56.680538823787096</v>
+      </c>
+      <c r="L28">
+        <v>0.142059326171875</v>
+      </c>
+      <c r="O28">
+        <f>J28-F28</f>
+        <v>-14252.963240615303</v>
+      </c>
+      <c r="P28" s="1">
+        <f>O28/365.24</f>
+        <v>-39.023555033992174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <f>B30+C30</f>
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>6466.2579999999998</v>
+      </c>
+      <c r="G30" s="1">
+        <f>F30/365.24</f>
+        <v>17.704134267878654</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.7180000000000002E-5</v>
+      </c>
+      <c r="J30">
+        <v>25849.690690372401</v>
+      </c>
+      <c r="K30" s="1">
+        <f>J30/365.24</f>
+        <v>70.774533704885556</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2.56027612421248E-5</v>
+      </c>
+      <c r="O30">
+        <f>J30-F30</f>
+        <v>19383.4326903724</v>
+      </c>
+      <c r="P30" s="1">
+        <f>O30/365.24</f>
+        <v>53.070399437006898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <f>B32+C32</f>
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>32685.3320910148</v>
+      </c>
+      <c r="G32" s="1">
+        <f>F32/365.24</f>
+        <v>89.490012296065046</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4.5504586564170001E-5</v>
+      </c>
+      <c r="J32">
+        <v>9398.1081073163296</v>
+      </c>
+      <c r="K32" s="1">
+        <f>J32/365.24</f>
+        <v>25.731322164375012</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1.0893471125099399E-5</v>
+      </c>
+      <c r="O32">
+        <f>J32-F32</f>
+        <v>-23287.22398369847</v>
+      </c>
+      <c r="P32" s="1">
+        <f>O32/365.24</f>
+        <v>-63.758690131690038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <f>B34+C34</f>
+        <v>24</v>
+      </c>
+      <c r="F34">
+        <v>22554.65</v>
+      </c>
+      <c r="G34" s="1">
+        <f>F34/365.24</f>
+        <v>61.75295695980725</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2.582E-5</v>
+      </c>
+      <c r="J34">
+        <v>14388.9555904888</v>
+      </c>
+      <c r="K34" s="1">
+        <f>J34/365.24</f>
+        <v>39.395891990167563</v>
+      </c>
+      <c r="L34">
+        <v>4.4409511199703898E-2</v>
+      </c>
+      <c r="O34">
+        <f>J34-F34</f>
+        <v>-8165.6944095112012</v>
+      </c>
+      <c r="P34" s="1">
+        <f>O34/365.24</f>
+        <v>-22.357064969639691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <f>B36+C36</f>
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <v>10472.800413400901</v>
+      </c>
+      <c r="G36">
+        <f>F36/365.24</f>
+        <v>28.673749899794384</v>
+      </c>
+      <c r="H36" s="2">
+        <v>6.2259597082932794E-5</v>
+      </c>
+      <c r="J36">
+        <v>12319.630729750401</v>
+      </c>
+      <c r="K36">
+        <f>J36/365.24</f>
+        <v>33.730234174105796</v>
+      </c>
+      <c r="L36">
+        <v>2.9234123123050799E-2</v>
+      </c>
+      <c r="O36">
+        <f>J36-F36</f>
+        <v>1846.8303163495002</v>
+      </c>
+      <c r="P36">
+        <f>O36/365.24</f>
+        <v>5.056484274311412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <f>B38+C38</f>
+        <v>41</v>
+      </c>
+      <c r="F38">
+        <v>11830</v>
+      </c>
+      <c r="G38">
+        <f>F38/365.24</f>
+        <v>32.389661592377614</v>
+      </c>
+      <c r="H38">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="J38">
+        <v>15110.3596453137</v>
+      </c>
+      <c r="K38">
+        <f>J38/365.24</f>
+        <v>41.371042726190176</v>
+      </c>
+      <c r="L38">
+        <v>1.6243598982691801E-3</v>
+      </c>
+      <c r="O38">
+        <f>J38-F38</f>
+        <v>3280.3596453136997</v>
+      </c>
+      <c r="P38">
+        <f>O38/365.24</f>
+        <v>8.98138113381256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <f>B40+C40</f>
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>13386.75</v>
+      </c>
+      <c r="G40">
+        <f>F40/365.24</f>
+        <v>36.651927499726206</v>
+      </c>
+      <c r="H40">
+        <v>0.25</v>
+      </c>
+      <c r="J40">
+        <v>15280.25</v>
+      </c>
+      <c r="K40">
+        <f>J40/365.24</f>
+        <v>41.836189902529846</v>
+      </c>
+      <c r="L40">
+        <v>0.25</v>
+      </c>
+      <c r="O40">
+        <f>J40-F40</f>
+        <v>1893.5</v>
+      </c>
+      <c r="P40">
+        <f>O40/365.24</f>
+        <v>5.1842624028036361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <f>B42+C42</f>
+        <v>62</v>
+      </c>
+      <c r="F42">
+        <v>10473.270243388801</v>
+      </c>
+      <c r="G42" s="1">
+        <f>F42/365.24</f>
+        <v>28.67503625941518</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4.0116452922423701E-5</v>
+      </c>
+      <c r="J42">
+        <v>15653.75</v>
+      </c>
+      <c r="K42" s="1">
+        <f>J42/365.24</f>
+        <v>42.858805169203812</v>
+      </c>
+      <c r="L42">
+        <v>0.25</v>
+      </c>
+      <c r="O42">
+        <f>J42-F42</f>
+        <v>5180.4797566111993</v>
+      </c>
+      <c r="P42" s="1">
+        <f>O42/365.24</f>
+        <v>14.183768909788629</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9A83D9-40E3-4A98-9316-1211A2782B69}">
+  <dimension ref="A1:X71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <f>I2*365.25</f>
+        <v>7305</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4">
+        <v>38718</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="5">
+        <f>I3</f>
+        <v>38718</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>26370.25</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="9">
+        <f>B4/365.25</f>
+        <v>72.197809719370298</v>
+      </c>
+      <c r="E4" s="10">
+        <f>B4+$I$7</f>
+        <v>57783.25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4">
+        <v>73050</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="5">
+        <f>I4</f>
+        <v>73050</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>28776.1696479573</v>
+      </c>
+      <c r="C5">
+        <v>1.2313158192016499E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:D21" si="0">B5/365.25</f>
+        <v>78.784858721306776</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" ref="E5:E21" si="1">B5+$I$7</f>
+        <v>60189.1696479573</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>17795.19086264</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.0050340228610599E-8</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>48.720577310444902</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
+        <v>49208.190862639996</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>25137.491609132201</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.4011636376380899E-5</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>68.822701188589193</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>56550.491609132201</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4">
+        <v>31413</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>24367.743942260699</v>
+      </c>
+      <c r="C8">
+        <v>8.4470272064208998E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>66.715246932951942</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>55780.743942260699</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>22415.61</v>
+      </c>
+      <c r="D9" s="9">
+        <f>B9/365.25</f>
+        <v>61.3705954825462</v>
+      </c>
+      <c r="E9" s="10">
+        <f>B9+$I$7</f>
+        <v>53828.61</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>23890.765968977699</v>
+      </c>
+      <c r="C10">
+        <v>0.102983030858967</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>65.409352413354412</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>55303.765968977699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>25136.935718286299</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.6556845770941801E-11</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>68.821179242399168</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>56549.935718286302</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>24602.372436523401</v>
+      </c>
+      <c r="C12">
+        <v>6.6741943359375E-2</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>67.35762474065271</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>56015.372436523401</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>25137.378800534301</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.1337164243062293E-6</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>68.822392335480629</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="1"/>
+        <v>56550.378800534301</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>13782.3111243395</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.07619497511122E-10</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>37.733911360272415</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="1"/>
+        <v>45195.311124339496</v>
+      </c>
+      <c r="G14" s="4">
+        <v>56549</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>13782.31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.86E-10</v>
+      </c>
+      <c r="D15" s="9">
+        <f>B15/365.25</f>
+        <v>37.73390828199863</v>
+      </c>
+      <c r="E15" s="10">
+        <f>B15+$I$7</f>
+        <v>45195.31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45195</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>25137.179873508601</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.1606360011630598E-6</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>68.821847702966735</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="1"/>
+        <v>56550.179873508605</v>
+      </c>
+      <c r="G16" s="4">
+        <v>41942</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>13782.283740585401</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.61429246266683E-10</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>37.733836387639698</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="1"/>
+        <v>45195.283740585401</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="4">
+        <v>41201</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4631.5322257502603</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.1730860074361199E-11</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>12.680444149898044</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="1"/>
+        <v>36044.532225750263</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="4">
+        <v>40850</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>13782.314259495901</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7.7265280264395304E-11</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="0"/>
+        <v>37.733919943862837</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
+        <v>45195.314259495899</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>13782.3194688782</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.89744800991482E-11</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>37.733934206374265</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>45195.319468878202</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <v>12718.830728404</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.7624724639786601E-6</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>34.822260721160852</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>44131.830728403998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>24730.6141661654</v>
+      </c>
+      <c r="C24">
+        <v>2.6321407087423199E-2</v>
+      </c>
+      <c r="D24" s="9">
+        <f>B24/365.25</f>
+        <v>67.708731461096235</v>
+      </c>
+      <c r="E24" s="10">
+        <f>B24+$I$7</f>
+        <v>56143.614166165396</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24">
+        <v>9.81</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5">
+        <v>27276.645809896701</v>
+      </c>
+      <c r="C25">
+        <v>0.11494599579109099</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:D33" si="2">B25/365.25</f>
+        <v>74.67938620094921</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" ref="E25:E33" si="3">B25+$I$7</f>
+        <v>58689.645809896698</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="1">
+        <f>H26/(H23*H24)</f>
+        <v>1964.6287125382264</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5">
+        <v>25137.353167993901</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2.17124157481723E-5</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="2"/>
+        <v>68.822322157409715</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="3"/>
+        <v>56550.353167993904</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>19273007.670000002</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5">
+        <v>26417.158482295399</v>
+      </c>
+      <c r="C27">
+        <v>4.3222444206476203E-2</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="2"/>
+        <v>72.326238144545925</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="3"/>
+        <v>57830.158482295403</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>24596.3825876964</v>
+      </c>
+      <c r="C28">
+        <v>1.63743691394726E-2</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="2"/>
+        <v>67.341225428326894</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="3"/>
+        <v>56009.382587696397</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5">
+        <v>22134.5</v>
+      </c>
+      <c r="C29">
+        <v>0.25</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="2"/>
+        <v>60.600958247775495</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="3"/>
+        <v>53547.5</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" s="5">
+        <v>22432.8670948744</v>
+      </c>
+      <c r="C30">
+        <v>6.3352704048156697E-2</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="2"/>
+        <v>61.41784283333169</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="3"/>
+        <v>53845.867094874397</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5">
+        <v>13782.2848738507</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.7252902984619103E-11</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="2"/>
+        <v>37.733839490350995</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="3"/>
+        <v>45195.284873850702</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5">
+        <v>4631.55464799739</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2.1985421578089398E-8</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="2"/>
+        <v>12.680505538664997</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="3"/>
+        <v>36044.554647997393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5">
+        <v>25137.521403977498</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8.4048757950464896E-6</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="2"/>
+        <v>68.822782762429838</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="3"/>
+        <v>56550.521403977502</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5">
+        <v>25137.528999999999</v>
+      </c>
+      <c r="C34" s="2">
+        <v>7.3599999999999998E-6</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ref="D34:D41" si="4">B34/365.25</f>
+        <v>68.822803559206022</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" ref="E34:E41" si="5">B34+$I$7</f>
+        <v>56550.528999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" s="5">
+        <v>10529.811423790001</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2.0696057213677301E-11</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="4"/>
+        <v>28.829052494976047</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="5"/>
+        <v>41942.811423790001</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" s="5">
+        <v>25810.5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="4"/>
+        <v>70.665297741273108</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="5"/>
+        <v>57223.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" s="5">
+        <v>13782.282585254899</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3.1733954394305202E-11</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="4"/>
+        <v>37.733833224517177</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="5"/>
+        <v>45195.282585254899</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>15</v>
+      </c>
+      <c r="B38" s="5">
+        <v>9409.9100345970201</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5.4861522383160105E-7</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="4"/>
+        <v>25.76292959506371</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="5"/>
+        <v>40822.910034597022</v>
+      </c>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" s="5">
+        <v>13782.2969744856</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9.10626517401801E-11</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" si="4"/>
+        <v>37.73387262008378</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="5"/>
+        <v>45195.296974485602</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40" s="5">
+        <v>9788.0529612249193</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.7936582918520299E-11</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="4"/>
+        <v>26.79822850438034</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="5"/>
+        <v>41201.052961224923</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" s="5">
+        <v>9437.0656657801592</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.5177108623363401E-11</v>
+      </c>
+      <c r="D41" s="9">
+        <f t="shared" si="4"/>
+        <v>25.837277661273536</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="5"/>
+        <v>40850.065665780159</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S44" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S46" s="2"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S54" xr:uid="{B0D83C2C-C991-48B7-92B7-BE5FBF651728}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11825296-315E-4A1D-9A0F-B542F2722BBA}">
+  <dimension ref="A1:X71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <f>I2*365.25</f>
+        <v>7305</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4">
+        <v>38718</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="5">
+        <f>I3</f>
+        <v>38718</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>34160.0583750968</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2.7267932891845701E-5</v>
+      </c>
+      <c r="D4" s="9">
+        <f>B4/365.25</f>
+        <v>93.525142710737299</v>
+      </c>
+      <c r="E4" s="10">
+        <f>B4+$I$7</f>
+        <v>65573.058375096793</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4">
+        <v>73050</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="5">
+        <f>I4</f>
+        <v>73050</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>34162.327548793197</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1.1180109447903101E-5</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:D21" si="0">B5/365.25</f>
+        <v>93.531355369728118</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" ref="E5:E21" si="1">B5+$I$7</f>
+        <v>65575.327548793197</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>26424.662565060298</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.10081255353159E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>72.346783203450514</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
+        <v>57837.662565060295</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>28550.5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>78.167008898015055</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>59963.5</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4">
+        <v>31413</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>32686.110004998802</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.4590349462297199E-4</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>89.489692005472421</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>64099.110004998802</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9">
+        <v>29347.975798383799</v>
+      </c>
+      <c r="C9" s="15">
+        <v>5.6253589027457796E-3</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>80.350378640338946</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>60760.975798383799</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <v>31546.720869671099</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1.0389586830580701E-2</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>86.370214564465698</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>62959.720869671102</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9">
+        <v>25136.929954162199</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1.6556845770941801E-11</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>68.821163461087465</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>56549.929954162202</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9">
+        <v>30590.28515625</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>83.75163629363449</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>62003.28515625</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9">
+        <v>30950.226999999999</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>84.737103353867212</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="1"/>
+        <v>62363.226999999999</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>34163.1719402526</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.8489281733830799E-5</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>93.533667187549895</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="1"/>
+        <v>65576.171940252592</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>17795.184866815402</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3.7252902984619103E-11</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>48.720560894771808</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>49208.184866815398</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>25137.607435846199</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.67648108800252E-6</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>68.823018304849285</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="1"/>
+        <v>56550.607435846199</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>21037.25</v>
+      </c>
+      <c r="C17">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>57.596851471594796</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="1"/>
+        <v>52450.25</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4631.5302370827303</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3.5183297263251398E-11</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>12.68043870522308</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>36044.530237082727</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="I18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17795.245396709099</v>
+      </c>
+      <c r="C19" s="14">
+        <v>5.3457915782928499E-7</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
+        <v>48.720726616588905</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>49208.245396709099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>17795.239583192601</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1.5467957214072901E-7</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="0"/>
+        <v>48.720710700048187</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>49208.239583192597</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>12718.978071211601</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.2589836650424496E-6</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>34.822664123782616</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>44131.978071211604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>34161.104205673801</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8.3584807537220105E-6</v>
+      </c>
+      <c r="D24" s="9">
+        <f>B24/365.25</f>
+        <v>93.528006038805756</v>
+      </c>
+      <c r="E24" s="10">
+        <f>B24+$I$7</f>
+        <v>65574.104205673793</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>34163.251535991702</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.2438109715779602E-5</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:D41" si="2">B25/365.25</f>
+        <v>93.533885108806842</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" ref="E25:E41" si="3">B25+$I$7</f>
+        <v>65576.251535991702</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>34161.600495243001</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.1126680506600301E-5</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="2"/>
+        <v>93.529364805593431</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="3"/>
+        <v>65574.600495243008</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>34161.376539764096</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7.7451434400346502E-6</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="2"/>
+        <v>93.528751648909235</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="3"/>
+        <v>65574.376539764096</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>34160.051953814</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.6817767951223598E-5</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="2"/>
+        <v>93.525125130223131</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="3"/>
+        <v>65573.051953813992</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>30448.598890007801</v>
+      </c>
+      <c r="C29">
+        <v>3.9602547563888403E-2</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="2"/>
+        <v>83.363720438077479</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="3"/>
+        <v>61861.598890007801</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>31541.665203392498</v>
+      </c>
+      <c r="C30">
+        <v>4.5101680904626802E-2</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="2"/>
+        <v>86.356372904565362</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="3"/>
+        <v>62954.665203392498</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>17070.6700832391</v>
+      </c>
+      <c r="C31" s="14">
+        <v>5.1550567150115997E-7</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="2"/>
+        <v>46.736947524268579</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="3"/>
+        <v>48483.6700832391</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4631.5273451448002</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3.5873165837040702E-11</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="2"/>
+        <v>12.680430787528543</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="3"/>
+        <v>36044.527345144801</v>
+      </c>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>25136.924490021302</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.2075794361255799E-11</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="2"/>
+        <v>68.82114850108502</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="3"/>
+        <v>56549.924490021302</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>25137.4202292193</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.63631306754218E-6</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="2"/>
+        <v>68.822505761038471</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="3"/>
+        <v>56550.4202292193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>19133.8126846864</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.9980731784469501E-2</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="2"/>
+        <v>52.385524119606842</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="3"/>
+        <v>50546.812684686403</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>32689.085869356499</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2.22075233856837E-5</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="2"/>
+        <v>89.497839478046544</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="3"/>
+        <v>64102.085869356495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>21687.695135687401</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4.3007548611473198E-2</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="2"/>
+        <v>59.377673198322796</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="3"/>
+        <v>53100.695135687405</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>15</v>
+      </c>
+      <c r="B38" s="12">
+        <v>9437.9453452077305</v>
+      </c>
+      <c r="C38" s="16">
+        <v>1.6556845770941801E-11</v>
+      </c>
+      <c r="D38" s="12">
+        <f t="shared" si="2"/>
+        <v>25.839686092286737</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="3"/>
+        <v>40850.945345207729</v>
+      </c>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1">
+        <v>17795.1753971738</v>
+      </c>
+      <c r="C39" s="14">
+        <v>4.9670537312825498E-11</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="2"/>
+        <v>48.72053496830609</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="3"/>
+        <v>49208.1753971738</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>15492</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="2"/>
+        <v>42.414784394250511</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="3"/>
+        <v>46905</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>18</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9431.4824957601795</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1.37973714757849E-11</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="2"/>
+        <v>25.821991774839642</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="3"/>
+        <v>40844.482495760181</v>
+      </c>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S44" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S46" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S48" s="2"/>
+    </row>
+    <row r="50" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="S50" s="2"/>
+    </row>
+    <row r="52" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="S52" s="2"/>
+    </row>
+    <row r="54" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="S54" s="2"/>
+    </row>
+    <row r="56" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="S56" s="2"/>
+    </row>
+    <row r="58" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="S58" s="2"/>
+    </row>
+    <row r="63" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S58" xr:uid="{B0D83C2C-C991-48B7-92B7-BE5FBF651728}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>